--- a/Python/Data_save/temp.xlsx
+++ b/Python/Data_save/temp.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,14 +455,14 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>22.5</v>
+        <v>22</v>
       </c>
       <c r="C2" t="n">
-        <v>306</v>
+        <v>353</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>00:19:11</t>
+          <t>00:27:19</t>
         </is>
       </c>
     </row>
@@ -471,14 +471,14 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>22.5</v>
+        <v>22</v>
       </c>
       <c r="C3" t="n">
-        <v>305</v>
+        <v>343</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>00:19:12</t>
+          <t>00:27:20</t>
         </is>
       </c>
     </row>
@@ -487,14 +487,14 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>22.5</v>
+        <v>22</v>
       </c>
       <c r="C4" t="n">
-        <v>305</v>
+        <v>346</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>00:19:13</t>
+          <t>00:27:21</t>
         </is>
       </c>
     </row>
@@ -503,14 +503,14 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>22.5</v>
+        <v>21.5</v>
       </c>
       <c r="C5" t="n">
-        <v>306</v>
+        <v>346</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>00:19:14</t>
+          <t>00:27:23</t>
         </is>
       </c>
     </row>
@@ -519,14 +519,14 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>22.5</v>
+        <v>21.5</v>
       </c>
       <c r="C6" t="n">
-        <v>303</v>
+        <v>358</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>00:19:16</t>
+          <t>00:27:24</t>
         </is>
       </c>
     </row>
@@ -535,14 +535,14 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>22.5</v>
+        <v>22</v>
       </c>
       <c r="C7" t="n">
-        <v>304</v>
+        <v>336</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>00:19:17</t>
+          <t>00:27:26</t>
         </is>
       </c>
     </row>
@@ -551,14 +551,14 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>22.5</v>
+        <v>22</v>
       </c>
       <c r="C8" t="n">
-        <v>97</v>
+        <v>316</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>00:19:18</t>
+          <t>00:27:27</t>
         </is>
       </c>
     </row>
@@ -567,14 +567,14 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>22.5</v>
+        <v>22</v>
       </c>
       <c r="C9" t="n">
-        <v>115</v>
+        <v>328</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>00:19:19</t>
+          <t>00:27:28</t>
         </is>
       </c>
     </row>
@@ -583,14 +583,14 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>22.5</v>
+        <v>22</v>
       </c>
       <c r="C10" t="n">
-        <v>122</v>
+        <v>332</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>00:19:20</t>
+          <t>00:27:29</t>
         </is>
       </c>
     </row>
@@ -599,14 +599,14 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>22.5</v>
+        <v>22</v>
       </c>
       <c r="C11" t="n">
-        <v>138</v>
+        <v>335</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>00:19:22</t>
+          <t>00:27:30</t>
         </is>
       </c>
     </row>
@@ -615,14 +615,14 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>22.5</v>
+        <v>22</v>
       </c>
       <c r="C12" t="n">
-        <v>142</v>
+        <v>331</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>00:19:23</t>
+          <t>00:27:31</t>
         </is>
       </c>
     </row>
@@ -631,14 +631,14 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>22.5</v>
+        <v>22</v>
       </c>
       <c r="C13" t="n">
-        <v>161</v>
+        <v>332</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>00:19:24</t>
+          <t>00:27:32</t>
         </is>
       </c>
     </row>
@@ -647,14 +647,14 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>22.5</v>
+        <v>22</v>
       </c>
       <c r="C14" t="n">
-        <v>186</v>
+        <v>333</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>00:19:25</t>
+          <t>00:27:33</t>
         </is>
       </c>
     </row>
@@ -663,14 +663,254 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>22.5</v>
+        <v>22</v>
       </c>
       <c r="C15" t="n">
-        <v>157</v>
+        <v>339</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>00:19:26</t>
+          <t>00:27:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>22</v>
+      </c>
+      <c r="C16" t="n">
+        <v>341</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>00:27:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>22</v>
+      </c>
+      <c r="C17" t="n">
+        <v>346</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>00:27:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>22</v>
+      </c>
+      <c r="C18" t="n">
+        <v>335</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>00:27:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>22</v>
+      </c>
+      <c r="C19" t="n">
+        <v>335</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>00:27:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>22</v>
+      </c>
+      <c r="C20" t="n">
+        <v>348</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>00:27:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>22</v>
+      </c>
+      <c r="C21" t="n">
+        <v>79</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>00:27:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>22</v>
+      </c>
+      <c r="C22" t="n">
+        <v>88</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>00:27:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>22</v>
+      </c>
+      <c r="C23" t="n">
+        <v>77</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>00:27:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>75</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>00:27:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>22</v>
+      </c>
+      <c r="C25" t="n">
+        <v>73</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>00:27:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>22</v>
+      </c>
+      <c r="C26" t="n">
+        <v>73</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>00:27:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>22</v>
+      </c>
+      <c r="C27" t="n">
+        <v>73</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>00:27:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>22</v>
+      </c>
+      <c r="C28" t="n">
+        <v>73</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>00:27:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>22</v>
+      </c>
+      <c r="C29" t="n">
+        <v>74</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>00:27:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>22</v>
+      </c>
+      <c r="C30" t="n">
+        <v>76</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>00:27:52</t>
         </is>
       </c>
     </row>
